--- a/data/trans_orig/SIT_LABORAL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SIT_LABORAL-Clase-trans_orig.xlsx
@@ -5394,12 +5394,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -5409,12 +5409,12 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
@@ -7452,12 +7452,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -7467,12 +7467,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8360,12 +8360,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -8473,12 +8473,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -8488,12 +8488,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9155,12 +9155,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3483</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -9170,12 +9170,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -9268,12 +9268,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3483</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -9283,12 +9283,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -10176,12 +10176,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -10191,12 +10191,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -10971,12 +10971,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -10986,12 +10986,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -12557,97 +12557,97 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>4043</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K50" s="2" t="inlineStr">
+      <c r="R50" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="inlineStr">
-        <is>
-          <t>1347</t>
-        </is>
-      </c>
-      <c r="N50" s="2" t="inlineStr">
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O50" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P50" s="2" t="inlineStr">
-        <is>
-          <t>0,28%</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="inlineStr">
-        <is>
-          <t>1624</t>
-        </is>
-      </c>
-      <c r="U50" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V50" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W50" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -14050,12 +14050,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -14065,12 +14065,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -14845,12 +14845,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -14860,12 +14860,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -15788,12 +15788,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -15803,12 +15803,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -15866,12 +15866,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -15881,12 +15881,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -16661,12 +16661,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -16774,12 +16774,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -16789,12 +16789,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -17682,12 +17682,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -17697,12 +17697,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -18477,97 +18477,97 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K44" s="2" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="inlineStr">
-        <is>
-          <t>1163</t>
-        </is>
-      </c>
-      <c r="N44" s="2" t="inlineStr">
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O44" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr">
-        <is>
-          <t>1177</t>
-        </is>
-      </c>
-      <c r="U44" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -18590,12 +18590,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -18605,12 +18605,12 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
@@ -20570,12 +20570,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -20585,12 +20585,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -20648,12 +20648,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -20663,12 +20663,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -21556,12 +21556,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -21571,12 +21571,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -22386,12 +22386,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -22401,12 +22401,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -22464,12 +22464,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -22479,12 +22479,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -22612,12 +22612,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -22627,12 +22627,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -23259,12 +23259,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -23274,12 +23274,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -24167,12 +24167,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -24182,12 +24182,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -25188,12 +25188,12 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -25203,12 +25203,12 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">

--- a/data/trans_orig/SIT_LABORAL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/SIT_LABORAL-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en País Vasco</t>
+          <t>Situación laboral en País Vasco (tasa de respuesta: 99,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7144,7 +7144,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en Andalucia</t>
+          <t>Situación laboral en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13742,7 +13742,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en C.Valenciana</t>
+          <t>Situación laboral en C.Valenciana (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20340,7 +20340,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Situación laboral en Barcelona</t>
+          <t>Situación laboral en Barcelona (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
